--- a/examples/input/models/SkMel133_biorecipe.xlsx
+++ b/examples/input/models/SkMel133_biorecipe.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jasmine/Desktop/github_local_copy/VIOLIN/examples/input/models/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F63EEE0B-2026-7B43-B68B-30A3E5390D64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F7F96F7-8987-8746-B494-595CF6D581F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-21780" yWindow="6100" windowWidth="25600" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-25600" yWindow="6100" windowWidth="25600" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4523" uniqueCount="993">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4524" uniqueCount="993">
   <si>
     <t>#</t>
   </si>
@@ -3364,8 +3364,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AN180"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E99" workbookViewId="0">
-      <selection activeCell="T121" sqref="T121"/>
+    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="O6" sqref="O6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3870,6 +3870,9 @@
       <c r="O6" t="s">
         <v>99</v>
       </c>
+      <c r="P6" t="s">
+        <v>67</v>
+      </c>
       <c r="AA6" t="s">
         <v>100</v>
       </c>
